--- a/Results/Calculation/dp-partial-ner-w2v-money.xlsx
+++ b/Results/Calculation/dp-partial-ner-w2v-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>0.7</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="G2">
-        <v>0.76</v>
+        <v>0.7814569536423841</v>
       </c>
       <c r="H2">
-        <v>0.73</v>
+        <v>0.7283950617283951</v>
       </c>
       <c r="I2">
         <v>0.8100000000000001</v>
@@ -464,25 +464,25 @@
         <v>203</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>0.67</v>
+        <v>0.6527331189710611</v>
       </c>
       <c r="G3">
-        <v>0.9399999999999999</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="H3">
-        <v>0.78</v>
+        <v>0.7689393939393939</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F4">
-        <v>0.77</v>
+        <v>0.7716049382716049</v>
       </c>
       <c r="G4">
-        <v>0.74</v>
+        <v>0.8116883116883117</v>
       </c>
       <c r="H4">
-        <v>0.75</v>
+        <v>0.7911392405063291</v>
       </c>
       <c r="I4">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,25 +522,25 @@
         <v>83</v>
       </c>
       <c r="C5">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5">
-        <v>0.68</v>
+        <v>0.6484375</v>
       </c>
       <c r="G5">
-        <v>0.64</v>
+        <v>0.6384615384615384</v>
       </c>
       <c r="H5">
-        <v>0.66</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="I5">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
